--- a/Spreadsheets/Sea wx.xlsx
+++ b/Spreadsheets/Sea wx.xlsx
@@ -1,127 +1,169 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
-    <t>MONTH</t>
+    <t xml:space="preserve">MONTH</t>
   </si>
   <si>
-    <t>NORMAL</t>
+    <t xml:space="preserve">NORMAL</t>
   </si>
   <si>
-    <t>DEVIATION</t>
+    <t xml:space="preserve">DEVIATION</t>
   </si>
   <si>
-    <t>High</t>
+    <t xml:space="preserve">High</t>
   </si>
   <si>
-    <t>Low</t>
+    <t xml:space="preserve">Low</t>
   </si>
   <si>
-    <t>Avg Max</t>
+    <t xml:space="preserve">Avg Max</t>
   </si>
   <si>
-    <t>Avg Min</t>
+    <t xml:space="preserve">Avg Min</t>
   </si>
   <si>
-    <t>Mean</t>
+    <t xml:space="preserve">Mean</t>
   </si>
   <si>
-    <t>Precip</t>
+    <t xml:space="preserve">Precip</t>
   </si>
   <si>
-    <t>Max</t>
+    <t xml:space="preserve">Max</t>
   </si>
   <si>
-    <t>Min</t>
+    <t xml:space="preserve">Min</t>
   </si>
   <si>
-    <t>Rain</t>
+    <t xml:space="preserve">Rain</t>
   </si>
   <si>
-    <t>Jul</t>
+    <t xml:space="preserve">Jul</t>
   </si>
   <si>
-    <t>Aug</t>
+    <t xml:space="preserve">Aug</t>
   </si>
   <si>
-    <t>Sep</t>
+    <t xml:space="preserve">Sep</t>
   </si>
   <si>
-    <t>Oct</t>
+    <t xml:space="preserve">Oct</t>
   </si>
   <si>
-    <t>Nov</t>
+    <t xml:space="preserve">Nov</t>
   </si>
   <si>
-    <t>Dec</t>
+    <t xml:space="preserve">Dec</t>
   </si>
   <si>
-    <t>Jan</t>
+    <t xml:space="preserve">Jan</t>
   </si>
   <si>
-    <t>Feb</t>
+    <t xml:space="preserve">Feb</t>
   </si>
   <si>
-    <t>Mar</t>
+    <t xml:space="preserve">Mar</t>
   </si>
   <si>
-    <t>Apr</t>
+    <t xml:space="preserve">Apr</t>
   </si>
   <si>
-    <t>May</t>
+    <t xml:space="preserve">May</t>
   </si>
   <si>
-    <t>Jun</t>
+    <t xml:space="preserve">Jun</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="9">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="12.0"/>
-      <color theme="1"/>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
-      <b/>
-      <color theme="1"/>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
-      <color theme="1"/>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
-      <b/>
-      <color theme="5"/>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <color theme="7"/>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FFEA4335"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF34A853"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -129,285 +171,210 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFEA4335"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF34A853"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
-  <a:themeElements>
-    <a:clrScheme name="Sheets">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4285F4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="EA4335"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="FBBC04"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="34A853"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="FF6D01"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="46BDC6"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="1155CC"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="1155CC"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Sheets">
-      <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:X998"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="4.71"/>
-    <col customWidth="1" min="2" max="2" width="5.0"/>
-    <col customWidth="1" min="3" max="3" width="4.57"/>
-    <col customWidth="1" min="4" max="4" width="8.29"/>
-    <col customWidth="1" min="5" max="5" width="7.86"/>
-    <col customWidth="1" min="6" max="6" width="5.86"/>
-    <col customWidth="1" min="7" max="7" width="6.43"/>
-    <col customWidth="1" min="8" max="8" width="11.14"/>
-    <col customWidth="1" min="9" max="9" width="8.29"/>
-    <col customWidth="1" min="10" max="10" width="7.86"/>
-    <col customWidth="1" min="11" max="11" width="5.86"/>
-    <col customWidth="1" min="12" max="12" width="6.43"/>
-    <col customWidth="1" min="14" max="14" width="4.71"/>
-    <col customWidth="1" min="15" max="15" width="4.29"/>
-    <col customWidth="1" min="16" max="16" width="5.86"/>
-    <col customWidth="1" min="17" max="17" width="5.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="5.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="7.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="6.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="7.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="5.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="5.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="6.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="6.16"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
       <c r="M1" s="1"/>
       <c r="N1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -416,7 +383,7 @@
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>3</v>
@@ -470,3570 +437,3570 @@
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
     </row>
-    <row r="3">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="5">
-        <v>87.0</v>
-      </c>
-      <c r="C3" s="5">
-        <v>53.0</v>
-      </c>
-      <c r="D3" s="5">
+      <c r="B3" s="5" t="n">
+        <v>87</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>53</v>
+      </c>
+      <c r="D3" s="5" t="n">
         <v>74.3</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="5" t="n">
         <v>56.7</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="5" t="n">
         <v>65.5</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="5" t="n">
         <v>1.5</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="5" t="n">
         <v>75.7</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="5" t="n">
         <v>56.1</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="5" t="n">
         <v>65.9</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="5" t="n">
         <v>0.79</v>
       </c>
-      <c r="N3" s="6">
-        <f t="shared" ref="N3:Q3" si="1">D3-I3</f>
-        <v>-1.4</v>
-      </c>
-      <c r="O3" s="6">
-        <f t="shared" si="1"/>
-        <v>0.6</v>
-      </c>
-      <c r="P3" s="6">
-        <f t="shared" si="1"/>
-        <v>-0.4</v>
-      </c>
-      <c r="Q3" s="7">
-        <f t="shared" si="1"/>
+      <c r="N3" s="6" t="n">
+        <f aca="false">D3-I3</f>
+        <v>-1.40000000000001</v>
+      </c>
+      <c r="O3" s="6" t="n">
+        <f aca="false">E3-J3</f>
+        <v>0.600000000000001</v>
+      </c>
+      <c r="P3" s="6" t="n">
+        <f aca="false">F3-K3</f>
+        <v>-0.400000000000006</v>
+      </c>
+      <c r="Q3" s="7" t="n">
+        <f aca="false">G3-L3</f>
         <v>0.71</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="5">
-        <v>87.0</v>
-      </c>
-      <c r="C4" s="5">
-        <v>55.0</v>
-      </c>
-      <c r="D4" s="5">
+      <c r="B4" s="5" t="n">
+        <v>87</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>55</v>
+      </c>
+      <c r="D4" s="5" t="n">
         <v>77.8</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="5" t="n">
         <v>59.3</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="5" t="n">
         <v>68.5</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="5" t="n">
         <v>1.33</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="5" t="n">
         <v>76.3</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="5" t="n">
         <v>56.8</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="5" t="n">
         <v>66.5</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="5" t="n">
         <v>0.97</v>
       </c>
-      <c r="N4" s="6">
-        <f t="shared" ref="N4:Q4" si="2">D4-I4</f>
+      <c r="N4" s="6" t="n">
+        <f aca="false">D4-I4</f>
         <v>1.5</v>
       </c>
-      <c r="O4" s="6">
-        <f t="shared" si="2"/>
+      <c r="O4" s="6" t="n">
+        <f aca="false">E4-J4</f>
         <v>2.5</v>
       </c>
-      <c r="P4" s="6">
-        <f t="shared" si="2"/>
+      <c r="P4" s="6" t="n">
+        <f aca="false">F4-K4</f>
         <v>2</v>
       </c>
-      <c r="Q4" s="7">
-        <f t="shared" si="2"/>
+      <c r="Q4" s="7" t="n">
+        <f aca="false">G4-L4</f>
         <v>0.36</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="5">
-        <v>80.0</v>
-      </c>
-      <c r="C5" s="8">
-        <v>40.0</v>
-      </c>
-      <c r="D5" s="5">
+      <c r="B5" s="5" t="n">
+        <v>80</v>
+      </c>
+      <c r="C5" s="8" t="n">
+        <v>40</v>
+      </c>
+      <c r="D5" s="5" t="n">
         <v>69.2</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="5" t="n">
         <v>55.4</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="5" t="n">
         <v>62.3</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="5" t="n">
         <v>3.86</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="5" t="n">
         <v>70.7</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="5" t="n">
         <v>52.5</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="5" t="n">
         <v>61.6</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="5" t="n">
         <v>1.52</v>
       </c>
-      <c r="N5" s="6">
-        <f t="shared" ref="N5:Q5" si="3">D5-I5</f>
+      <c r="N5" s="6" t="n">
+        <f aca="false">D5-I5</f>
         <v>-1.5</v>
       </c>
-      <c r="O5" s="6">
-        <f t="shared" si="3"/>
+      <c r="O5" s="6" t="n">
+        <f aca="false">E5-J5</f>
         <v>2.9</v>
       </c>
-      <c r="P5" s="6">
-        <f t="shared" si="3"/>
-        <v>0.7</v>
-      </c>
-      <c r="Q5" s="7">
-        <f t="shared" si="3"/>
+      <c r="P5" s="6" t="n">
+        <f aca="false">F5-K5</f>
+        <v>0.699999999999996</v>
+      </c>
+      <c r="Q5" s="7" t="n">
+        <f aca="false">G5-L5</f>
         <v>2.34</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="5">
-        <v>69.0</v>
-      </c>
-      <c r="C6" s="5">
-        <v>34.0</v>
-      </c>
-      <c r="D6" s="5">
+      <c r="B6" s="5" t="n">
+        <v>69</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="D6" s="5" t="n">
         <v>58.4</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="5" t="n">
         <v>43.4</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="5" t="n">
         <v>50.9</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="5" t="n">
         <v>2.61</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="5" t="n">
         <v>60.1</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="5" t="n">
         <v>46.5</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="5" t="n">
         <v>53.3</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="5" t="n">
         <v>3.41</v>
       </c>
-      <c r="N6" s="6">
-        <f t="shared" ref="N6:Q6" si="4">D6-I6</f>
+      <c r="N6" s="6" t="n">
+        <f aca="false">D6-I6</f>
         <v>-1.7</v>
       </c>
-      <c r="O6" s="6">
-        <f t="shared" si="4"/>
+      <c r="O6" s="6" t="n">
+        <f aca="false">E6-J6</f>
         <v>-3.1</v>
       </c>
-      <c r="P6" s="6">
-        <f t="shared" si="4"/>
+      <c r="P6" s="6" t="n">
+        <f aca="false">F6-K6</f>
         <v>-2.4</v>
       </c>
-      <c r="Q6" s="7">
-        <f t="shared" si="4"/>
+      <c r="Q6" s="7" t="n">
+        <f aca="false">G6-L6</f>
         <v>-0.8</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="5">
-        <v>62.0</v>
-      </c>
-      <c r="C7" s="5">
-        <v>28.0</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="B7" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>28</v>
+      </c>
+      <c r="D7" s="5" t="n">
         <v>52.6</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="5" t="n">
         <v>40.1</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="5" t="n">
         <v>46.4</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="8" t="n">
         <v>1.77</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="5" t="n">
         <v>51.4</v>
       </c>
-      <c r="J7" s="5">
-        <v>41.0</v>
-      </c>
-      <c r="K7" s="5">
+      <c r="J7" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="K7" s="5" t="n">
         <v>46.2</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="5" t="n">
         <v>5.84</v>
       </c>
-      <c r="N7" s="6">
-        <f t="shared" ref="N7:Q7" si="5">D7-I7</f>
+      <c r="N7" s="6" t="n">
+        <f aca="false">D7-I7</f>
         <v>1.2</v>
       </c>
-      <c r="O7" s="6">
-        <f t="shared" si="5"/>
-        <v>-0.9</v>
-      </c>
-      <c r="P7" s="6">
-        <f t="shared" si="5"/>
-        <v>0.2</v>
-      </c>
-      <c r="Q7" s="7">
-        <f t="shared" si="5"/>
+      <c r="O7" s="6" t="n">
+        <f aca="false">E7-J7</f>
+        <v>-0.899999999999999</v>
+      </c>
+      <c r="P7" s="6" t="n">
+        <f aca="false">F7-K7</f>
+        <v>0.199999999999996</v>
+      </c>
+      <c r="Q7" s="7" t="n">
+        <f aca="false">G7-L7</f>
         <v>-4.07</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="5">
-        <v>54.0</v>
-      </c>
-      <c r="C8" s="5">
-        <v>30.0</v>
-      </c>
-      <c r="D8" s="5">
+      <c r="B8" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="D8" s="5" t="n">
         <v>47.8</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="5" t="n">
         <v>40.6</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="5" t="n">
         <v>44.2</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="5" t="n">
         <v>7.31</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="5" t="n">
         <v>45.9</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="5" t="n">
         <v>36.3</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="5" t="n">
         <v>41.1</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="5" t="n">
         <v>5.43</v>
       </c>
-      <c r="N8" s="6">
-        <f t="shared" ref="N8:Q8" si="6">D8-I8</f>
+      <c r="N8" s="6" t="n">
+        <f aca="false">D8-I8</f>
         <v>1.9</v>
       </c>
-      <c r="O8" s="6">
-        <f t="shared" si="6"/>
+      <c r="O8" s="6" t="n">
+        <f aca="false">E8-J8</f>
         <v>4.3</v>
       </c>
-      <c r="P8" s="6">
-        <f t="shared" si="6"/>
+      <c r="P8" s="6" t="n">
+        <f aca="false">F8-K8</f>
         <v>3.1</v>
       </c>
-      <c r="Q8" s="7">
-        <f t="shared" si="6"/>
+      <c r="Q8" s="7" t="n">
+        <f aca="false">G8-L8</f>
         <v>1.88</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="5">
-        <v>59.0</v>
-      </c>
-      <c r="C9" s="5">
-        <v>28.0</v>
-      </c>
-      <c r="D9" s="5">
+      <c r="B9" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>28</v>
+      </c>
+      <c r="D9" s="5" t="n">
         <v>48.7</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="5" t="n">
         <v>39.6</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="5" t="n">
         <v>44.2</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="5" t="n">
         <v>7.96</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="5" t="n">
         <v>47.2</v>
       </c>
-      <c r="J9" s="5">
-        <v>37.0</v>
-      </c>
-      <c r="K9" s="5">
+      <c r="J9" s="5" t="n">
+        <v>37</v>
+      </c>
+      <c r="K9" s="5" t="n">
         <v>42.1</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="5" t="n">
         <v>4.81</v>
       </c>
-      <c r="N9" s="6">
-        <f t="shared" ref="N9:Q9" si="7">D9-I9</f>
+      <c r="N9" s="6" t="n">
+        <f aca="false">D9-I9</f>
         <v>1.5</v>
       </c>
-      <c r="O9" s="6">
-        <f t="shared" si="7"/>
+      <c r="O9" s="6" t="n">
+        <f aca="false">E9-J9</f>
         <v>2.6</v>
       </c>
-      <c r="P9" s="6">
-        <f t="shared" si="7"/>
+      <c r="P9" s="6" t="n">
+        <f aca="false">F9-K9</f>
         <v>2.1</v>
       </c>
-      <c r="Q9" s="7">
-        <f t="shared" si="7"/>
+      <c r="Q9" s="7" t="n">
+        <f aca="false">G9-L9</f>
         <v>3.15</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="5">
-        <v>58.0</v>
-      </c>
-      <c r="C10" s="5">
-        <v>31.0</v>
-      </c>
-      <c r="D10" s="5">
+      <c r="B10" s="5" t="n">
+        <v>58</v>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>31</v>
+      </c>
+      <c r="D10" s="5" t="n">
         <v>49.8</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="5" t="n">
         <v>37.5</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="5" t="n">
         <v>43.6</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="5" t="n">
         <v>5.01</v>
       </c>
-      <c r="I10" s="5">
-        <v>50.0</v>
-      </c>
-      <c r="J10" s="5">
+      <c r="I10" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="J10" s="5" t="n">
         <v>36.9</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="5" t="n">
         <v>43.4</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="5" t="n">
         <v>3.31</v>
       </c>
-      <c r="N10" s="6">
-        <f t="shared" ref="N10:Q10" si="8">D10-I10</f>
-        <v>-0.2</v>
-      </c>
-      <c r="O10" s="6">
-        <f t="shared" si="8"/>
-        <v>0.6</v>
-      </c>
-      <c r="P10" s="6">
-        <f t="shared" si="8"/>
-        <v>0.2</v>
-      </c>
-      <c r="Q10" s="7">
-        <f t="shared" si="8"/>
+      <c r="N10" s="6" t="n">
+        <f aca="false">D10-I10</f>
+        <v>-0.200000000000003</v>
+      </c>
+      <c r="O10" s="6" t="n">
+        <f aca="false">E10-J10</f>
+        <v>0.600000000000001</v>
+      </c>
+      <c r="P10" s="6" t="n">
+        <f aca="false">F10-K10</f>
+        <v>0.200000000000003</v>
+      </c>
+      <c r="Q10" s="7" t="n">
+        <f aca="false">G10-L10</f>
         <v>1.7</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="5">
-        <v>62.0</v>
-      </c>
-      <c r="C11" s="5">
-        <v>30.0</v>
-      </c>
-      <c r="D11" s="5">
+      <c r="B11" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="5" t="n">
         <v>51.5</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="5" t="n">
         <v>37.6</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="5" t="n">
         <v>44.6</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="5" t="n">
         <v>3.38</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="5" t="n">
         <v>53.8</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="5" t="n">
         <v>39.3</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="5" t="n">
         <v>46.6</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="5" t="n">
         <v>3.51</v>
       </c>
-      <c r="N11" s="6">
-        <f t="shared" ref="N11:Q11" si="9">D11-I11</f>
+      <c r="N11" s="6" t="n">
+        <f aca="false">D11-I11</f>
         <v>-2.3</v>
       </c>
-      <c r="O11" s="6">
-        <f t="shared" si="9"/>
+      <c r="O11" s="6" t="n">
+        <f aca="false">E11-J11</f>
         <v>-1.7</v>
       </c>
-      <c r="P11" s="6">
-        <f t="shared" si="9"/>
+      <c r="P11" s="6" t="n">
+        <f aca="false">F11-K11</f>
         <v>-2</v>
       </c>
-      <c r="Q11" s="7">
-        <f t="shared" si="9"/>
+      <c r="Q11" s="7" t="n">
+        <f aca="false">G11-L11</f>
         <v>-0.13</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="5">
-        <v>71.0</v>
-      </c>
-      <c r="C12" s="5">
-        <v>35.0</v>
-      </c>
-      <c r="D12" s="5">
+      <c r="B12" s="5" t="n">
+        <v>71</v>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>35</v>
+      </c>
+      <c r="D12" s="5" t="n">
         <v>60.7</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="5" t="n">
         <v>42.9</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="5" t="n">
         <v>51.8</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="5" t="n">
         <v>1.73</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="5" t="n">
         <v>58.5</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="5" t="n">
         <v>42.5</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="5" t="n">
         <v>50.5</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="5" t="n">
         <v>2.77</v>
       </c>
-      <c r="N12" s="6">
-        <f t="shared" ref="N12:Q12" si="10">D12-I12</f>
+      <c r="N12" s="6" t="n">
+        <f aca="false">D12-I12</f>
         <v>2.2</v>
       </c>
-      <c r="O12" s="6">
-        <f t="shared" si="10"/>
-        <v>0.4</v>
-      </c>
-      <c r="P12" s="6">
-        <f t="shared" si="10"/>
+      <c r="O12" s="6" t="n">
+        <f aca="false">E12-J12</f>
+        <v>0.399999999999999</v>
+      </c>
+      <c r="P12" s="6" t="n">
+        <f aca="false">F12-K12</f>
         <v>1.3</v>
       </c>
-      <c r="Q12" s="7">
-        <f t="shared" si="10"/>
+      <c r="Q12" s="7" t="n">
+        <f aca="false">G12-L12</f>
         <v>-1.04</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="5">
-        <v>85.0</v>
-      </c>
-      <c r="C13" s="5">
-        <v>41.0</v>
-      </c>
-      <c r="D13" s="5">
+      <c r="B13" s="5" t="n">
+        <v>85</v>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="D13" s="5" t="n">
         <v>67.5</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="5" t="n">
         <v>49.8</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="5" t="n">
         <v>58.7</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="9" t="n">
         <v>4.21</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="5" t="n">
         <v>64.3</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="5" t="n">
         <v>47.8</v>
       </c>
-      <c r="K13" s="5">
-        <v>56.0</v>
-      </c>
-      <c r="L13" s="5">
+      <c r="K13" s="5" t="n">
+        <v>56</v>
+      </c>
+      <c r="L13" s="5" t="n">
         <v>2.16</v>
       </c>
-      <c r="N13" s="6">
-        <f t="shared" ref="N13:Q13" si="11">D13-I13</f>
+      <c r="N13" s="6" t="n">
+        <f aca="false">D13-I13</f>
         <v>3.2</v>
       </c>
-      <c r="O13" s="6">
-        <f t="shared" si="11"/>
+      <c r="O13" s="6" t="n">
+        <f aca="false">E13-J13</f>
         <v>2</v>
       </c>
-      <c r="P13" s="6">
-        <f t="shared" si="11"/>
+      <c r="P13" s="6" t="n">
+        <f aca="false">F13-K13</f>
         <v>2.7</v>
       </c>
-      <c r="Q13" s="7">
-        <f t="shared" si="11"/>
+      <c r="Q13" s="7" t="n">
+        <f aca="false">G13-L13</f>
         <v>2.05</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="5">
-        <v>81.0</v>
-      </c>
-      <c r="C14" s="5">
-        <v>48.0</v>
-      </c>
-      <c r="D14" s="5">
+      <c r="B14" s="5" t="n">
+        <v>81</v>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>48</v>
+      </c>
+      <c r="D14" s="5" t="n">
         <v>69.8</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="5" t="n">
         <v>53.3</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="5" t="n">
         <v>61.5</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="5" t="n">
         <v>3.06</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="5" t="n">
         <v>69.7</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="5" t="n">
         <v>52.3</v>
       </c>
-      <c r="K14" s="5">
-        <v>61.0</v>
-      </c>
-      <c r="L14" s="5">
+      <c r="K14" s="5" t="n">
+        <v>61</v>
+      </c>
+      <c r="L14" s="5" t="n">
         <v>1.63</v>
       </c>
-      <c r="N14" s="6">
-        <f t="shared" ref="N14:Q14" si="12">D14-I14</f>
-        <v>0.1</v>
-      </c>
-      <c r="O14" s="6">
-        <f t="shared" si="12"/>
+      <c r="N14" s="6" t="n">
+        <f aca="false">D14-I14</f>
+        <v>0.0999999999999943</v>
+      </c>
+      <c r="O14" s="6" t="n">
+        <f aca="false">E14-J14</f>
         <v>1</v>
       </c>
-      <c r="P14" s="6">
-        <f t="shared" si="12"/>
+      <c r="P14" s="6" t="n">
+        <f aca="false">F14-K14</f>
         <v>0.5</v>
       </c>
-      <c r="Q14" s="7">
-        <f t="shared" si="12"/>
+      <c r="Q14" s="7" t="n">
+        <f aca="false">G14-L14</f>
         <v>1.43</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3"/>
     </row>
-    <row r="17">
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3"/>
     </row>
-    <row r="18">
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3"/>
     </row>
-    <row r="19">
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3"/>
     </row>
-    <row r="20">
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3"/>
     </row>
-    <row r="21">
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3"/>
     </row>
-    <row r="22">
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3"/>
     </row>
-    <row r="23">
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3"/>
     </row>
-    <row r="24">
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3"/>
     </row>
-    <row r="25">
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3"/>
     </row>
-    <row r="26">
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3"/>
     </row>
-    <row r="27">
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3"/>
     </row>
-    <row r="28">
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3"/>
     </row>
-    <row r="29">
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3"/>
     </row>
-    <row r="30">
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3"/>
     </row>
-    <row r="31">
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3"/>
     </row>
-    <row r="32">
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3"/>
     </row>
-    <row r="33">
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3"/>
     </row>
-    <row r="34">
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3"/>
     </row>
-    <row r="35">
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3"/>
     </row>
-    <row r="36">
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3"/>
     </row>
-    <row r="37">
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3"/>
     </row>
-    <row r="38">
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3"/>
     </row>
-    <row r="39">
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3"/>
     </row>
-    <row r="40">
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3"/>
     </row>
-    <row r="41">
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3"/>
     </row>
-    <row r="42">
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3"/>
     </row>
-    <row r="43">
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3"/>
     </row>
-    <row r="44">
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3"/>
     </row>
-    <row r="45">
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3"/>
     </row>
-    <row r="46">
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3"/>
     </row>
-    <row r="47">
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3"/>
     </row>
-    <row r="48">
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3"/>
     </row>
-    <row r="49">
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3"/>
     </row>
-    <row r="50">
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3"/>
     </row>
-    <row r="51">
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3"/>
     </row>
-    <row r="52">
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3"/>
     </row>
-    <row r="53">
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3"/>
     </row>
-    <row r="54">
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3"/>
     </row>
-    <row r="55">
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="3"/>
     </row>
-    <row r="56">
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="3"/>
     </row>
-    <row r="57">
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="3"/>
     </row>
-    <row r="58">
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="3"/>
     </row>
-    <row r="59">
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3"/>
     </row>
-    <row r="60">
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="3"/>
     </row>
-    <row r="61">
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="3"/>
     </row>
-    <row r="62">
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="3"/>
     </row>
-    <row r="63">
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="3"/>
     </row>
-    <row r="64">
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="3"/>
     </row>
-    <row r="65">
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="3"/>
     </row>
-    <row r="66">
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="3"/>
     </row>
-    <row r="67">
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3"/>
     </row>
-    <row r="68">
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="3"/>
     </row>
-    <row r="69">
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="3"/>
     </row>
-    <row r="70">
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="3"/>
     </row>
-    <row r="71">
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="3"/>
     </row>
-    <row r="72">
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="3"/>
     </row>
-    <row r="73">
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="3"/>
     </row>
-    <row r="74">
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="3"/>
     </row>
-    <row r="75">
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="3"/>
     </row>
-    <row r="76">
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="3"/>
     </row>
-    <row r="77">
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3"/>
     </row>
-    <row r="78">
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3"/>
     </row>
-    <row r="79">
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="3"/>
     </row>
-    <row r="80">
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="3"/>
     </row>
-    <row r="81">
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="3"/>
     </row>
-    <row r="82">
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="3"/>
     </row>
-    <row r="83">
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3"/>
     </row>
-    <row r="84">
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3"/>
     </row>
-    <row r="85">
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="3"/>
     </row>
-    <row r="86">
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="3"/>
     </row>
-    <row r="87">
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3"/>
     </row>
-    <row r="88">
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="3"/>
     </row>
-    <row r="89">
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="3"/>
     </row>
-    <row r="90">
+    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3"/>
     </row>
-    <row r="91">
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="3"/>
     </row>
-    <row r="92">
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="3"/>
     </row>
-    <row r="93">
+    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="3"/>
     </row>
-    <row r="94">
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="3"/>
     </row>
-    <row r="95">
+    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="3"/>
     </row>
-    <row r="96">
+    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="3"/>
     </row>
-    <row r="97">
+    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="3"/>
     </row>
-    <row r="98">
+    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="3"/>
     </row>
-    <row r="99">
+    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="3"/>
     </row>
-    <row r="100">
+    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="3"/>
     </row>
-    <row r="101">
+    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="3"/>
     </row>
-    <row r="102">
+    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="3"/>
     </row>
-    <row r="103">
+    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="3"/>
     </row>
-    <row r="104">
+    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="3"/>
     </row>
-    <row r="105">
+    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="3"/>
     </row>
-    <row r="106">
+    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="3"/>
     </row>
-    <row r="107">
+    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="3"/>
     </row>
-    <row r="108">
+    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="3"/>
     </row>
-    <row r="109">
+    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="3"/>
     </row>
-    <row r="110">
+    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="3"/>
     </row>
-    <row r="111">
+    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="3"/>
     </row>
-    <row r="112">
+    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="3"/>
     </row>
-    <row r="113">
+    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="3"/>
     </row>
-    <row r="114">
+    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="3"/>
     </row>
-    <row r="115">
+    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="3"/>
     </row>
-    <row r="116">
+    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="3"/>
     </row>
-    <row r="117">
+    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="3"/>
     </row>
-    <row r="118">
+    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="3"/>
     </row>
-    <row r="119">
+    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="3"/>
     </row>
-    <row r="120">
+    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="3"/>
     </row>
-    <row r="121">
+    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="3"/>
     </row>
-    <row r="122">
+    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="3"/>
     </row>
-    <row r="123">
+    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="3"/>
     </row>
-    <row r="124">
+    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="3"/>
     </row>
-    <row r="125">
+    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="3"/>
     </row>
-    <row r="126">
+    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="3"/>
     </row>
-    <row r="127">
+    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="3"/>
     </row>
-    <row r="128">
+    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="3"/>
     </row>
-    <row r="129">
+    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="3"/>
     </row>
-    <row r="130">
+    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="3"/>
     </row>
-    <row r="131">
+    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="3"/>
     </row>
-    <row r="132">
+    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="3"/>
     </row>
-    <row r="133">
+    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="3"/>
     </row>
-    <row r="134">
+    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="3"/>
     </row>
-    <row r="135">
+    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="3"/>
     </row>
-    <row r="136">
+    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="3"/>
     </row>
-    <row r="137">
+    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="3"/>
     </row>
-    <row r="138">
+    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="3"/>
     </row>
-    <row r="139">
+    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="3"/>
     </row>
-    <row r="140">
+    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="3"/>
     </row>
-    <row r="141">
+    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="3"/>
     </row>
-    <row r="142">
+    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="3"/>
     </row>
-    <row r="143">
+    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="3"/>
     </row>
-    <row r="144">
+    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="3"/>
     </row>
-    <row r="145">
+    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="3"/>
     </row>
-    <row r="146">
+    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="3"/>
     </row>
-    <row r="147">
+    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="3"/>
     </row>
-    <row r="148">
+    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="3"/>
     </row>
-    <row r="149">
+    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="3"/>
     </row>
-    <row r="150">
+    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="3"/>
     </row>
-    <row r="151">
+    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="3"/>
     </row>
-    <row r="152">
+    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="3"/>
     </row>
-    <row r="153">
+    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="3"/>
     </row>
-    <row r="154">
+    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="3"/>
     </row>
-    <row r="155">
+    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="3"/>
     </row>
-    <row r="156">
+    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="3"/>
     </row>
-    <row r="157">
+    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="3"/>
     </row>
-    <row r="158">
+    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="3"/>
     </row>
-    <row r="159">
+    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="3"/>
     </row>
-    <row r="160">
+    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="3"/>
     </row>
-    <row r="161">
+    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="3"/>
     </row>
-    <row r="162">
+    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="3"/>
     </row>
-    <row r="163">
+    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="3"/>
     </row>
-    <row r="164">
+    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="3"/>
     </row>
-    <row r="165">
+    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="3"/>
     </row>
-    <row r="166">
+    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="3"/>
     </row>
-    <row r="167">
+    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="3"/>
     </row>
-    <row r="168">
+    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="3"/>
     </row>
-    <row r="169">
+    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="3"/>
     </row>
-    <row r="170">
+    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="3"/>
     </row>
-    <row r="171">
+    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="3"/>
     </row>
-    <row r="172">
+    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="3"/>
     </row>
-    <row r="173">
+    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="3"/>
     </row>
-    <row r="174">
+    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="3"/>
     </row>
-    <row r="175">
+    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="3"/>
     </row>
-    <row r="176">
+    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="3"/>
     </row>
-    <row r="177">
+    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="3"/>
     </row>
-    <row r="178">
+    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="3"/>
     </row>
-    <row r="179">
+    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="3"/>
     </row>
-    <row r="180">
+    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="3"/>
     </row>
-    <row r="181">
+    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="3"/>
     </row>
-    <row r="182">
+    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="3"/>
     </row>
-    <row r="183">
+    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="3"/>
     </row>
-    <row r="184">
+    <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="3"/>
     </row>
-    <row r="185">
+    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="3"/>
     </row>
-    <row r="186">
+    <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="3"/>
     </row>
-    <row r="187">
+    <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="3"/>
     </row>
-    <row r="188">
+    <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="3"/>
     </row>
-    <row r="189">
+    <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="3"/>
     </row>
-    <row r="190">
+    <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="3"/>
     </row>
-    <row r="191">
+    <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="3"/>
     </row>
-    <row r="192">
+    <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="3"/>
     </row>
-    <row r="193">
+    <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="3"/>
     </row>
-    <row r="194">
+    <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="3"/>
     </row>
-    <row r="195">
+    <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="3"/>
     </row>
-    <row r="196">
+    <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="3"/>
     </row>
-    <row r="197">
+    <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="3"/>
     </row>
-    <row r="198">
+    <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="3"/>
     </row>
-    <row r="199">
+    <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="3"/>
     </row>
-    <row r="200">
+    <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="3"/>
     </row>
-    <row r="201">
+    <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="3"/>
     </row>
-    <row r="202">
+    <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="3"/>
     </row>
-    <row r="203">
+    <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="3"/>
     </row>
-    <row r="204">
+    <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="3"/>
     </row>
-    <row r="205">
+    <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="3"/>
     </row>
-    <row r="206">
+    <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="3"/>
     </row>
-    <row r="207">
+    <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="3"/>
     </row>
-    <row r="208">
+    <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="3"/>
     </row>
-    <row r="209">
+    <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="3"/>
     </row>
-    <row r="210">
+    <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="3"/>
     </row>
-    <row r="211">
+    <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="3"/>
     </row>
-    <row r="212">
+    <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="3"/>
     </row>
-    <row r="213">
+    <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="3"/>
     </row>
-    <row r="214">
+    <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="3"/>
     </row>
-    <row r="215">
+    <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="3"/>
     </row>
-    <row r="216">
+    <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="3"/>
     </row>
-    <row r="217">
+    <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="3"/>
     </row>
-    <row r="218">
+    <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="3"/>
     </row>
-    <row r="219">
+    <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="3"/>
     </row>
-    <row r="220">
+    <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="3"/>
     </row>
-    <row r="221">
+    <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="3"/>
     </row>
-    <row r="222">
+    <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="3"/>
     </row>
-    <row r="223">
+    <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="3"/>
     </row>
-    <row r="224">
+    <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="3"/>
     </row>
-    <row r="225">
+    <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="3"/>
     </row>
-    <row r="226">
+    <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="3"/>
     </row>
-    <row r="227">
+    <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="3"/>
     </row>
-    <row r="228">
+    <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="3"/>
     </row>
-    <row r="229">
+    <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="3"/>
     </row>
-    <row r="230">
+    <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="3"/>
     </row>
-    <row r="231">
+    <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="3"/>
     </row>
-    <row r="232">
+    <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="3"/>
     </row>
-    <row r="233">
+    <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="3"/>
     </row>
-    <row r="234">
+    <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="3"/>
     </row>
-    <row r="235">
+    <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="3"/>
     </row>
-    <row r="236">
+    <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="3"/>
     </row>
-    <row r="237">
+    <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="3"/>
     </row>
-    <row r="238">
+    <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="3"/>
     </row>
-    <row r="239">
+    <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="3"/>
     </row>
-    <row r="240">
+    <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="3"/>
     </row>
-    <row r="241">
+    <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="3"/>
     </row>
-    <row r="242">
+    <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="3"/>
     </row>
-    <row r="243">
+    <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="3"/>
     </row>
-    <row r="244">
+    <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="3"/>
     </row>
-    <row r="245">
+    <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="3"/>
     </row>
-    <row r="246">
+    <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="3"/>
     </row>
-    <row r="247">
+    <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="3"/>
     </row>
-    <row r="248">
+    <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="3"/>
     </row>
-    <row r="249">
+    <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="3"/>
     </row>
-    <row r="250">
+    <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="3"/>
     </row>
-    <row r="251">
+    <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="3"/>
     </row>
-    <row r="252">
+    <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="3"/>
     </row>
-    <row r="253">
+    <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="3"/>
     </row>
-    <row r="254">
+    <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="3"/>
     </row>
-    <row r="255">
+    <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="3"/>
     </row>
-    <row r="256">
+    <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="3"/>
     </row>
-    <row r="257">
+    <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="3"/>
     </row>
-    <row r="258">
+    <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="3"/>
     </row>
-    <row r="259">
+    <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="3"/>
     </row>
-    <row r="260">
+    <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="3"/>
     </row>
-    <row r="261">
+    <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="3"/>
     </row>
-    <row r="262">
+    <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="3"/>
     </row>
-    <row r="263">
+    <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="3"/>
     </row>
-    <row r="264">
+    <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="3"/>
     </row>
-    <row r="265">
+    <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="3"/>
     </row>
-    <row r="266">
+    <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="3"/>
     </row>
-    <row r="267">
+    <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="3"/>
     </row>
-    <row r="268">
+    <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="3"/>
     </row>
-    <row r="269">
+    <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="3"/>
     </row>
-    <row r="270">
+    <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="3"/>
     </row>
-    <row r="271">
+    <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="3"/>
     </row>
-    <row r="272">
+    <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="3"/>
     </row>
-    <row r="273">
+    <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="3"/>
     </row>
-    <row r="274">
+    <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="3"/>
     </row>
-    <row r="275">
+    <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="3"/>
     </row>
-    <row r="276">
+    <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="3"/>
     </row>
-    <row r="277">
+    <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="3"/>
     </row>
-    <row r="278">
+    <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="3"/>
     </row>
-    <row r="279">
+    <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="3"/>
     </row>
-    <row r="280">
+    <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="3"/>
     </row>
-    <row r="281">
+    <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="3"/>
     </row>
-    <row r="282">
+    <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="3"/>
     </row>
-    <row r="283">
+    <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="3"/>
     </row>
-    <row r="284">
+    <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="3"/>
     </row>
-    <row r="285">
+    <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="3"/>
     </row>
-    <row r="286">
+    <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="3"/>
     </row>
-    <row r="287">
+    <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="3"/>
     </row>
-    <row r="288">
+    <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="3"/>
     </row>
-    <row r="289">
+    <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="3"/>
     </row>
-    <row r="290">
+    <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="3"/>
     </row>
-    <row r="291">
+    <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="3"/>
     </row>
-    <row r="292">
+    <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="3"/>
     </row>
-    <row r="293">
+    <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="3"/>
     </row>
-    <row r="294">
+    <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="3"/>
     </row>
-    <row r="295">
+    <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="3"/>
     </row>
-    <row r="296">
+    <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="3"/>
     </row>
-    <row r="297">
+    <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="3"/>
     </row>
-    <row r="298">
+    <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="3"/>
     </row>
-    <row r="299">
+    <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="3"/>
     </row>
-    <row r="300">
+    <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="3"/>
     </row>
-    <row r="301">
+    <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="3"/>
     </row>
-    <row r="302">
+    <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="3"/>
     </row>
-    <row r="303">
+    <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="3"/>
     </row>
-    <row r="304">
+    <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="3"/>
     </row>
-    <row r="305">
+    <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="3"/>
     </row>
-    <row r="306">
+    <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="3"/>
     </row>
-    <row r="307">
+    <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="3"/>
     </row>
-    <row r="308">
+    <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="3"/>
     </row>
-    <row r="309">
+    <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="3"/>
     </row>
-    <row r="310">
+    <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="3"/>
     </row>
-    <row r="311">
+    <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="3"/>
     </row>
-    <row r="312">
+    <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="3"/>
     </row>
-    <row r="313">
+    <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="3"/>
     </row>
-    <row r="314">
+    <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="3"/>
     </row>
-    <row r="315">
+    <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="3"/>
     </row>
-    <row r="316">
+    <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="3"/>
     </row>
-    <row r="317">
+    <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="3"/>
     </row>
-    <row r="318">
+    <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="3"/>
     </row>
-    <row r="319">
+    <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="3"/>
     </row>
-    <row r="320">
+    <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="3"/>
     </row>
-    <row r="321">
+    <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="3"/>
     </row>
-    <row r="322">
+    <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="3"/>
     </row>
-    <row r="323">
+    <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="3"/>
     </row>
-    <row r="324">
+    <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="3"/>
     </row>
-    <row r="325">
+    <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="3"/>
     </row>
-    <row r="326">
+    <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="3"/>
     </row>
-    <row r="327">
+    <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="3"/>
     </row>
-    <row r="328">
+    <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="3"/>
     </row>
-    <row r="329">
+    <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="3"/>
     </row>
-    <row r="330">
+    <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="3"/>
     </row>
-    <row r="331">
+    <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="3"/>
     </row>
-    <row r="332">
+    <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="3"/>
     </row>
-    <row r="333">
+    <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="3"/>
     </row>
-    <row r="334">
+    <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="3"/>
     </row>
-    <row r="335">
+    <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="3"/>
     </row>
-    <row r="336">
+    <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="3"/>
     </row>
-    <row r="337">
+    <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="3"/>
     </row>
-    <row r="338">
+    <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="3"/>
     </row>
-    <row r="339">
+    <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="3"/>
     </row>
-    <row r="340">
+    <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="3"/>
     </row>
-    <row r="341">
+    <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="3"/>
     </row>
-    <row r="342">
+    <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="3"/>
     </row>
-    <row r="343">
+    <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="3"/>
     </row>
-    <row r="344">
+    <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="3"/>
     </row>
-    <row r="345">
+    <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="3"/>
     </row>
-    <row r="346">
+    <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="3"/>
     </row>
-    <row r="347">
+    <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="3"/>
     </row>
-    <row r="348">
+    <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="3"/>
     </row>
-    <row r="349">
+    <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="3"/>
     </row>
-    <row r="350">
+    <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="3"/>
     </row>
-    <row r="351">
+    <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="3"/>
     </row>
-    <row r="352">
+    <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="3"/>
     </row>
-    <row r="353">
+    <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="3"/>
     </row>
-    <row r="354">
+    <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="3"/>
     </row>
-    <row r="355">
+    <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="3"/>
     </row>
-    <row r="356">
+    <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="3"/>
     </row>
-    <row r="357">
+    <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="3"/>
     </row>
-    <row r="358">
+    <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="3"/>
     </row>
-    <row r="359">
+    <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="3"/>
     </row>
-    <row r="360">
+    <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="3"/>
     </row>
-    <row r="361">
+    <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="3"/>
     </row>
-    <row r="362">
+    <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="3"/>
     </row>
-    <row r="363">
+    <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="3"/>
     </row>
-    <row r="364">
+    <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="3"/>
     </row>
-    <row r="365">
+    <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="3"/>
     </row>
-    <row r="366">
+    <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="3"/>
     </row>
-    <row r="367">
+    <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="3"/>
     </row>
-    <row r="368">
+    <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="3"/>
     </row>
-    <row r="369">
+    <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="3"/>
     </row>
-    <row r="370">
+    <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="3"/>
     </row>
-    <row r="371">
+    <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="3"/>
     </row>
-    <row r="372">
+    <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="3"/>
     </row>
-    <row r="373">
+    <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="3"/>
     </row>
-    <row r="374">
+    <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="3"/>
     </row>
-    <row r="375">
+    <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="3"/>
     </row>
-    <row r="376">
+    <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="3"/>
     </row>
-    <row r="377">
+    <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="3"/>
     </row>
-    <row r="378">
+    <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="3"/>
     </row>
-    <row r="379">
+    <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="3"/>
     </row>
-    <row r="380">
+    <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="3"/>
     </row>
-    <row r="381">
+    <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="3"/>
     </row>
-    <row r="382">
+    <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="3"/>
     </row>
-    <row r="383">
+    <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="3"/>
     </row>
-    <row r="384">
+    <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="3"/>
     </row>
-    <row r="385">
+    <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="3"/>
     </row>
-    <row r="386">
+    <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="3"/>
     </row>
-    <row r="387">
+    <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="3"/>
     </row>
-    <row r="388">
+    <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="3"/>
     </row>
-    <row r="389">
+    <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="3"/>
     </row>
-    <row r="390">
+    <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="3"/>
     </row>
-    <row r="391">
+    <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="3"/>
     </row>
-    <row r="392">
+    <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="3"/>
     </row>
-    <row r="393">
+    <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="3"/>
     </row>
-    <row r="394">
+    <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="3"/>
     </row>
-    <row r="395">
+    <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="3"/>
     </row>
-    <row r="396">
+    <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="3"/>
     </row>
-    <row r="397">
+    <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="3"/>
     </row>
-    <row r="398">
+    <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="3"/>
     </row>
-    <row r="399">
+    <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="3"/>
     </row>
-    <row r="400">
+    <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="3"/>
     </row>
-    <row r="401">
+    <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="3"/>
     </row>
-    <row r="402">
+    <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="3"/>
     </row>
-    <row r="403">
+    <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="3"/>
     </row>
-    <row r="404">
+    <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="3"/>
     </row>
-    <row r="405">
+    <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="3"/>
     </row>
-    <row r="406">
+    <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="3"/>
     </row>
-    <row r="407">
+    <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="3"/>
     </row>
-    <row r="408">
+    <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="3"/>
     </row>
-    <row r="409">
+    <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="3"/>
     </row>
-    <row r="410">
+    <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="3"/>
     </row>
-    <row r="411">
+    <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="3"/>
     </row>
-    <row r="412">
+    <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="3"/>
     </row>
-    <row r="413">
+    <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="3"/>
     </row>
-    <row r="414">
+    <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="3"/>
     </row>
-    <row r="415">
+    <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="3"/>
     </row>
-    <row r="416">
+    <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="3"/>
     </row>
-    <row r="417">
+    <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="3"/>
     </row>
-    <row r="418">
+    <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="3"/>
     </row>
-    <row r="419">
+    <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="3"/>
     </row>
-    <row r="420">
+    <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="3"/>
     </row>
-    <row r="421">
+    <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="3"/>
     </row>
-    <row r="422">
+    <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="3"/>
     </row>
-    <row r="423">
+    <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="3"/>
     </row>
-    <row r="424">
+    <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="3"/>
     </row>
-    <row r="425">
+    <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="3"/>
     </row>
-    <row r="426">
+    <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="3"/>
     </row>
-    <row r="427">
+    <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="3"/>
     </row>
-    <row r="428">
+    <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="3"/>
     </row>
-    <row r="429">
+    <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="3"/>
     </row>
-    <row r="430">
+    <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="3"/>
     </row>
-    <row r="431">
+    <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="3"/>
     </row>
-    <row r="432">
+    <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="3"/>
     </row>
-    <row r="433">
+    <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="3"/>
     </row>
-    <row r="434">
+    <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="3"/>
     </row>
-    <row r="435">
+    <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="3"/>
     </row>
-    <row r="436">
+    <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="3"/>
     </row>
-    <row r="437">
+    <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="3"/>
     </row>
-    <row r="438">
+    <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="3"/>
     </row>
-    <row r="439">
+    <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="3"/>
     </row>
-    <row r="440">
+    <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="3"/>
     </row>
-    <row r="441">
+    <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="3"/>
     </row>
-    <row r="442">
+    <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="3"/>
     </row>
-    <row r="443">
+    <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="3"/>
     </row>
-    <row r="444">
+    <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="3"/>
     </row>
-    <row r="445">
+    <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="3"/>
     </row>
-    <row r="446">
+    <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="3"/>
     </row>
-    <row r="447">
+    <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="3"/>
     </row>
-    <row r="448">
+    <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="3"/>
     </row>
-    <row r="449">
+    <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="3"/>
     </row>
-    <row r="450">
+    <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="3"/>
     </row>
-    <row r="451">
+    <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="3"/>
     </row>
-    <row r="452">
+    <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="3"/>
     </row>
-    <row r="453">
+    <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="3"/>
     </row>
-    <row r="454">
+    <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="3"/>
     </row>
-    <row r="455">
+    <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="3"/>
     </row>
-    <row r="456">
+    <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="3"/>
     </row>
-    <row r="457">
+    <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="3"/>
     </row>
-    <row r="458">
+    <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="3"/>
     </row>
-    <row r="459">
+    <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="3"/>
     </row>
-    <row r="460">
+    <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="3"/>
     </row>
-    <row r="461">
+    <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="3"/>
     </row>
-    <row r="462">
+    <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="3"/>
     </row>
-    <row r="463">
+    <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="3"/>
     </row>
-    <row r="464">
+    <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="3"/>
     </row>
-    <row r="465">
+    <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="3"/>
     </row>
-    <row r="466">
+    <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="3"/>
     </row>
-    <row r="467">
+    <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="3"/>
     </row>
-    <row r="468">
+    <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="3"/>
     </row>
-    <row r="469">
+    <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="3"/>
     </row>
-    <row r="470">
+    <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="3"/>
     </row>
-    <row r="471">
+    <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="3"/>
     </row>
-    <row r="472">
+    <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="3"/>
     </row>
-    <row r="473">
+    <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="3"/>
     </row>
-    <row r="474">
+    <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="3"/>
     </row>
-    <row r="475">
+    <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="3"/>
     </row>
-    <row r="476">
+    <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="3"/>
     </row>
-    <row r="477">
+    <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="3"/>
     </row>
-    <row r="478">
+    <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="3"/>
     </row>
-    <row r="479">
+    <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="3"/>
     </row>
-    <row r="480">
+    <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="3"/>
     </row>
-    <row r="481">
+    <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="3"/>
     </row>
-    <row r="482">
+    <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="3"/>
     </row>
-    <row r="483">
+    <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="3"/>
     </row>
-    <row r="484">
+    <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="3"/>
     </row>
-    <row r="485">
+    <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="3"/>
     </row>
-    <row r="486">
+    <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="3"/>
     </row>
-    <row r="487">
+    <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="3"/>
     </row>
-    <row r="488">
+    <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="3"/>
     </row>
-    <row r="489">
+    <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="3"/>
     </row>
-    <row r="490">
+    <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="3"/>
     </row>
-    <row r="491">
+    <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="3"/>
     </row>
-    <row r="492">
+    <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="3"/>
     </row>
-    <row r="493">
+    <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="3"/>
     </row>
-    <row r="494">
+    <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="3"/>
     </row>
-    <row r="495">
+    <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="3"/>
     </row>
-    <row r="496">
+    <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="3"/>
     </row>
-    <row r="497">
+    <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="3"/>
     </row>
-    <row r="498">
+    <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="3"/>
     </row>
-    <row r="499">
+    <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="3"/>
     </row>
-    <row r="500">
+    <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="3"/>
     </row>
-    <row r="501">
+    <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="3"/>
     </row>
-    <row r="502">
+    <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="3"/>
     </row>
-    <row r="503">
+    <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="3"/>
     </row>
-    <row r="504">
+    <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="3"/>
     </row>
-    <row r="505">
+    <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="3"/>
     </row>
-    <row r="506">
+    <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="3"/>
     </row>
-    <row r="507">
+    <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="3"/>
     </row>
-    <row r="508">
+    <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="3"/>
     </row>
-    <row r="509">
+    <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="3"/>
     </row>
-    <row r="510">
+    <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="3"/>
     </row>
-    <row r="511">
+    <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="3"/>
     </row>
-    <row r="512">
+    <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="3"/>
     </row>
-    <row r="513">
+    <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="3"/>
     </row>
-    <row r="514">
+    <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="3"/>
     </row>
-    <row r="515">
+    <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="3"/>
     </row>
-    <row r="516">
+    <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="3"/>
     </row>
-    <row r="517">
+    <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="3"/>
     </row>
-    <row r="518">
+    <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="3"/>
     </row>
-    <row r="519">
+    <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="3"/>
     </row>
-    <row r="520">
+    <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="3"/>
     </row>
-    <row r="521">
+    <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="3"/>
     </row>
-    <row r="522">
+    <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="3"/>
     </row>
-    <row r="523">
+    <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="3"/>
     </row>
-    <row r="524">
+    <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="3"/>
     </row>
-    <row r="525">
+    <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="3"/>
     </row>
-    <row r="526">
+    <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="3"/>
     </row>
-    <row r="527">
+    <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="3"/>
     </row>
-    <row r="528">
+    <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="3"/>
     </row>
-    <row r="529">
+    <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="3"/>
     </row>
-    <row r="530">
+    <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="3"/>
     </row>
-    <row r="531">
+    <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="3"/>
     </row>
-    <row r="532">
+    <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="3"/>
     </row>
-    <row r="533">
+    <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="3"/>
     </row>
-    <row r="534">
+    <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="3"/>
     </row>
-    <row r="535">
+    <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="3"/>
     </row>
-    <row r="536">
+    <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="3"/>
     </row>
-    <row r="537">
+    <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="3"/>
     </row>
-    <row r="538">
+    <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="3"/>
     </row>
-    <row r="539">
+    <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="3"/>
     </row>
-    <row r="540">
+    <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="3"/>
     </row>
-    <row r="541">
+    <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="3"/>
     </row>
-    <row r="542">
+    <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="3"/>
     </row>
-    <row r="543">
+    <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="3"/>
     </row>
-    <row r="544">
+    <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="3"/>
     </row>
-    <row r="545">
+    <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="3"/>
     </row>
-    <row r="546">
+    <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="3"/>
     </row>
-    <row r="547">
+    <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="3"/>
     </row>
-    <row r="548">
+    <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="3"/>
     </row>
-    <row r="549">
+    <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="3"/>
     </row>
-    <row r="550">
+    <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="3"/>
     </row>
-    <row r="551">
+    <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="3"/>
     </row>
-    <row r="552">
+    <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="3"/>
     </row>
-    <row r="553">
+    <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="3"/>
     </row>
-    <row r="554">
+    <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="3"/>
     </row>
-    <row r="555">
+    <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="3"/>
     </row>
-    <row r="556">
+    <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="3"/>
     </row>
-    <row r="557">
+    <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="3"/>
     </row>
-    <row r="558">
+    <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="3"/>
     </row>
-    <row r="559">
+    <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="3"/>
     </row>
-    <row r="560">
+    <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="3"/>
     </row>
-    <row r="561">
+    <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="3"/>
     </row>
-    <row r="562">
+    <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="3"/>
     </row>
-    <row r="563">
+    <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="3"/>
     </row>
-    <row r="564">
+    <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="3"/>
     </row>
-    <row r="565">
+    <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="3"/>
     </row>
-    <row r="566">
+    <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="3"/>
     </row>
-    <row r="567">
+    <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="3"/>
     </row>
-    <row r="568">
+    <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="3"/>
     </row>
-    <row r="569">
+    <row r="569" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="3"/>
     </row>
-    <row r="570">
+    <row r="570" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="3"/>
     </row>
-    <row r="571">
+    <row r="571" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="3"/>
     </row>
-    <row r="572">
+    <row r="572" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="3"/>
     </row>
-    <row r="573">
+    <row r="573" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="3"/>
     </row>
-    <row r="574">
+    <row r="574" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="3"/>
     </row>
-    <row r="575">
+    <row r="575" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="3"/>
     </row>
-    <row r="576">
+    <row r="576" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="3"/>
     </row>
-    <row r="577">
+    <row r="577" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="3"/>
     </row>
-    <row r="578">
+    <row r="578" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="3"/>
     </row>
-    <row r="579">
+    <row r="579" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="3"/>
     </row>
-    <row r="580">
+    <row r="580" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="3"/>
     </row>
-    <row r="581">
+    <row r="581" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="3"/>
     </row>
-    <row r="582">
+    <row r="582" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="3"/>
     </row>
-    <row r="583">
+    <row r="583" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="3"/>
     </row>
-    <row r="584">
+    <row r="584" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="3"/>
     </row>
-    <row r="585">
+    <row r="585" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="3"/>
     </row>
-    <row r="586">
+    <row r="586" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="3"/>
     </row>
-    <row r="587">
+    <row r="587" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="3"/>
     </row>
-    <row r="588">
+    <row r="588" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="3"/>
     </row>
-    <row r="589">
+    <row r="589" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="3"/>
     </row>
-    <row r="590">
+    <row r="590" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="3"/>
     </row>
-    <row r="591">
+    <row r="591" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="3"/>
     </row>
-    <row r="592">
+    <row r="592" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="3"/>
     </row>
-    <row r="593">
+    <row r="593" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="3"/>
     </row>
-    <row r="594">
+    <row r="594" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="3"/>
     </row>
-    <row r="595">
+    <row r="595" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="3"/>
     </row>
-    <row r="596">
+    <row r="596" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="3"/>
     </row>
-    <row r="597">
+    <row r="597" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="3"/>
     </row>
-    <row r="598">
+    <row r="598" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="3"/>
     </row>
-    <row r="599">
+    <row r="599" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="3"/>
     </row>
-    <row r="600">
+    <row r="600" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="3"/>
     </row>
-    <row r="601">
+    <row r="601" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="3"/>
     </row>
-    <row r="602">
+    <row r="602" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="3"/>
     </row>
-    <row r="603">
+    <row r="603" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="3"/>
     </row>
-    <row r="604">
+    <row r="604" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="3"/>
     </row>
-    <row r="605">
+    <row r="605" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="3"/>
     </row>
-    <row r="606">
+    <row r="606" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="3"/>
     </row>
-    <row r="607">
+    <row r="607" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="3"/>
     </row>
-    <row r="608">
+    <row r="608" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="3"/>
     </row>
-    <row r="609">
+    <row r="609" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="3"/>
     </row>
-    <row r="610">
+    <row r="610" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="3"/>
     </row>
-    <row r="611">
+    <row r="611" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="3"/>
     </row>
-    <row r="612">
+    <row r="612" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="3"/>
     </row>
-    <row r="613">
+    <row r="613" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="3"/>
     </row>
-    <row r="614">
+    <row r="614" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="3"/>
     </row>
-    <row r="615">
+    <row r="615" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="3"/>
     </row>
-    <row r="616">
+    <row r="616" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="3"/>
     </row>
-    <row r="617">
+    <row r="617" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="3"/>
     </row>
-    <row r="618">
+    <row r="618" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="3"/>
     </row>
-    <row r="619">
+    <row r="619" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="3"/>
     </row>
-    <row r="620">
+    <row r="620" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="3"/>
     </row>
-    <row r="621">
+    <row r="621" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="3"/>
     </row>
-    <row r="622">
+    <row r="622" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="3"/>
     </row>
-    <row r="623">
+    <row r="623" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="3"/>
     </row>
-    <row r="624">
+    <row r="624" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="3"/>
     </row>
-    <row r="625">
+    <row r="625" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="3"/>
     </row>
-    <row r="626">
+    <row r="626" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="3"/>
     </row>
-    <row r="627">
+    <row r="627" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="3"/>
     </row>
-    <row r="628">
+    <row r="628" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="3"/>
     </row>
-    <row r="629">
+    <row r="629" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="3"/>
     </row>
-    <row r="630">
+    <row r="630" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="3"/>
     </row>
-    <row r="631">
+    <row r="631" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="3"/>
     </row>
-    <row r="632">
+    <row r="632" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="3"/>
     </row>
-    <row r="633">
+    <row r="633" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="3"/>
     </row>
-    <row r="634">
+    <row r="634" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="3"/>
     </row>
-    <row r="635">
+    <row r="635" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="3"/>
     </row>
-    <row r="636">
+    <row r="636" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="3"/>
     </row>
-    <row r="637">
+    <row r="637" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="3"/>
     </row>
-    <row r="638">
+    <row r="638" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="3"/>
     </row>
-    <row r="639">
+    <row r="639" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="3"/>
     </row>
-    <row r="640">
+    <row r="640" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="3"/>
     </row>
-    <row r="641">
+    <row r="641" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="3"/>
     </row>
-    <row r="642">
+    <row r="642" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="3"/>
     </row>
-    <row r="643">
+    <row r="643" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="3"/>
     </row>
-    <row r="644">
+    <row r="644" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="3"/>
     </row>
-    <row r="645">
+    <row r="645" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="3"/>
     </row>
-    <row r="646">
+    <row r="646" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="3"/>
     </row>
-    <row r="647">
+    <row r="647" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="3"/>
     </row>
-    <row r="648">
+    <row r="648" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="3"/>
     </row>
-    <row r="649">
+    <row r="649" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="3"/>
     </row>
-    <row r="650">
+    <row r="650" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="3"/>
     </row>
-    <row r="651">
+    <row r="651" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="3"/>
     </row>
-    <row r="652">
+    <row r="652" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="3"/>
     </row>
-    <row r="653">
+    <row r="653" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="3"/>
     </row>
-    <row r="654">
+    <row r="654" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="3"/>
     </row>
-    <row r="655">
+    <row r="655" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="3"/>
     </row>
-    <row r="656">
+    <row r="656" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="3"/>
     </row>
-    <row r="657">
+    <row r="657" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="3"/>
     </row>
-    <row r="658">
+    <row r="658" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="3"/>
     </row>
-    <row r="659">
+    <row r="659" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="3"/>
     </row>
-    <row r="660">
+    <row r="660" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="3"/>
     </row>
-    <row r="661">
+    <row r="661" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="3"/>
     </row>
-    <row r="662">
+    <row r="662" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="3"/>
     </row>
-    <row r="663">
+    <row r="663" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="3"/>
     </row>
-    <row r="664">
+    <row r="664" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="3"/>
     </row>
-    <row r="665">
+    <row r="665" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="3"/>
     </row>
-    <row r="666">
+    <row r="666" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="3"/>
     </row>
-    <row r="667">
+    <row r="667" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="3"/>
     </row>
-    <row r="668">
+    <row r="668" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="3"/>
     </row>
-    <row r="669">
+    <row r="669" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="3"/>
     </row>
-    <row r="670">
+    <row r="670" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="3"/>
     </row>
-    <row r="671">
+    <row r="671" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="3"/>
     </row>
-    <row r="672">
+    <row r="672" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="3"/>
     </row>
-    <row r="673">
+    <row r="673" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="3"/>
     </row>
-    <row r="674">
+    <row r="674" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="3"/>
     </row>
-    <row r="675">
+    <row r="675" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="3"/>
     </row>
-    <row r="676">
+    <row r="676" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="3"/>
     </row>
-    <row r="677">
+    <row r="677" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="3"/>
     </row>
-    <row r="678">
+    <row r="678" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="3"/>
     </row>
-    <row r="679">
+    <row r="679" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="3"/>
     </row>
-    <row r="680">
+    <row r="680" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="3"/>
     </row>
-    <row r="681">
+    <row r="681" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="3"/>
     </row>
-    <row r="682">
+    <row r="682" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="3"/>
     </row>
-    <row r="683">
+    <row r="683" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="3"/>
     </row>
-    <row r="684">
+    <row r="684" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="3"/>
     </row>
-    <row r="685">
+    <row r="685" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="3"/>
     </row>
-    <row r="686">
+    <row r="686" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="3"/>
     </row>
-    <row r="687">
+    <row r="687" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="3"/>
     </row>
-    <row r="688">
+    <row r="688" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="3"/>
     </row>
-    <row r="689">
+    <row r="689" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="3"/>
     </row>
-    <row r="690">
+    <row r="690" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="3"/>
     </row>
-    <row r="691">
+    <row r="691" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="3"/>
     </row>
-    <row r="692">
+    <row r="692" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="3"/>
     </row>
-    <row r="693">
+    <row r="693" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="3"/>
     </row>
-    <row r="694">
+    <row r="694" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="3"/>
     </row>
-    <row r="695">
+    <row r="695" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="3"/>
     </row>
-    <row r="696">
+    <row r="696" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="3"/>
     </row>
-    <row r="697">
+    <row r="697" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="3"/>
     </row>
-    <row r="698">
+    <row r="698" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A698" s="3"/>
     </row>
-    <row r="699">
+    <row r="699" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="3"/>
     </row>
-    <row r="700">
+    <row r="700" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="3"/>
     </row>
-    <row r="701">
+    <row r="701" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A701" s="3"/>
     </row>
-    <row r="702">
+    <row r="702" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A702" s="3"/>
     </row>
-    <row r="703">
+    <row r="703" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="3"/>
     </row>
-    <row r="704">
+    <row r="704" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A704" s="3"/>
     </row>
-    <row r="705">
+    <row r="705" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A705" s="3"/>
     </row>
-    <row r="706">
+    <row r="706" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A706" s="3"/>
     </row>
-    <row r="707">
+    <row r="707" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A707" s="3"/>
     </row>
-    <row r="708">
+    <row r="708" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="3"/>
     </row>
-    <row r="709">
+    <row r="709" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="3"/>
     </row>
-    <row r="710">
+    <row r="710" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A710" s="3"/>
     </row>
-    <row r="711">
+    <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A711" s="3"/>
     </row>
-    <row r="712">
+    <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A712" s="3"/>
     </row>
-    <row r="713">
+    <row r="713" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A713" s="3"/>
     </row>
-    <row r="714">
+    <row r="714" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A714" s="3"/>
     </row>
-    <row r="715">
+    <row r="715" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A715" s="3"/>
     </row>
-    <row r="716">
+    <row r="716" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="3"/>
     </row>
-    <row r="717">
+    <row r="717" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="3"/>
     </row>
-    <row r="718">
+    <row r="718" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A718" s="3"/>
     </row>
-    <row r="719">
+    <row r="719" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A719" s="3"/>
     </row>
-    <row r="720">
+    <row r="720" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A720" s="3"/>
     </row>
-    <row r="721">
+    <row r="721" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A721" s="3"/>
     </row>
-    <row r="722">
+    <row r="722" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A722" s="3"/>
     </row>
-    <row r="723">
+    <row r="723" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A723" s="3"/>
     </row>
-    <row r="724">
+    <row r="724" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A724" s="3"/>
     </row>
-    <row r="725">
+    <row r="725" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A725" s="3"/>
     </row>
-    <row r="726">
+    <row r="726" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="3"/>
     </row>
-    <row r="727">
+    <row r="727" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A727" s="3"/>
     </row>
-    <row r="728">
+    <row r="728" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A728" s="3"/>
     </row>
-    <row r="729">
+    <row r="729" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A729" s="3"/>
     </row>
-    <row r="730">
+    <row r="730" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A730" s="3"/>
     </row>
-    <row r="731">
+    <row r="731" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A731" s="3"/>
     </row>
-    <row r="732">
+    <row r="732" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A732" s="3"/>
     </row>
-    <row r="733">
+    <row r="733" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A733" s="3"/>
     </row>
-    <row r="734">
+    <row r="734" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A734" s="3"/>
     </row>
-    <row r="735">
+    <row r="735" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A735" s="3"/>
     </row>
-    <row r="736">
+    <row r="736" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A736" s="3"/>
     </row>
-    <row r="737">
+    <row r="737" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A737" s="3"/>
     </row>
-    <row r="738">
+    <row r="738" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A738" s="3"/>
     </row>
-    <row r="739">
+    <row r="739" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A739" s="3"/>
     </row>
-    <row r="740">
+    <row r="740" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A740" s="3"/>
     </row>
-    <row r="741">
+    <row r="741" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A741" s="3"/>
     </row>
-    <row r="742">
+    <row r="742" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A742" s="3"/>
     </row>
-    <row r="743">
+    <row r="743" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A743" s="3"/>
     </row>
-    <row r="744">
+    <row r="744" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A744" s="3"/>
     </row>
-    <row r="745">
+    <row r="745" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A745" s="3"/>
     </row>
-    <row r="746">
+    <row r="746" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A746" s="3"/>
     </row>
-    <row r="747">
+    <row r="747" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A747" s="3"/>
     </row>
-    <row r="748">
+    <row r="748" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="3"/>
     </row>
-    <row r="749">
+    <row r="749" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A749" s="3"/>
     </row>
-    <row r="750">
+    <row r="750" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A750" s="3"/>
     </row>
-    <row r="751">
+    <row r="751" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A751" s="3"/>
     </row>
-    <row r="752">
+    <row r="752" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A752" s="3"/>
     </row>
-    <row r="753">
+    <row r="753" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A753" s="3"/>
     </row>
-    <row r="754">
+    <row r="754" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A754" s="3"/>
     </row>
-    <row r="755">
+    <row r="755" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A755" s="3"/>
     </row>
-    <row r="756">
+    <row r="756" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A756" s="3"/>
     </row>
-    <row r="757">
+    <row r="757" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A757" s="3"/>
     </row>
-    <row r="758">
+    <row r="758" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A758" s="3"/>
     </row>
-    <row r="759">
+    <row r="759" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A759" s="3"/>
     </row>
-    <row r="760">
+    <row r="760" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A760" s="3"/>
     </row>
-    <row r="761">
+    <row r="761" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A761" s="3"/>
     </row>
-    <row r="762">
+    <row r="762" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A762" s="3"/>
     </row>
-    <row r="763">
+    <row r="763" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A763" s="3"/>
     </row>
-    <row r="764">
+    <row r="764" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A764" s="3"/>
     </row>
-    <row r="765">
+    <row r="765" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A765" s="3"/>
     </row>
-    <row r="766">
+    <row r="766" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A766" s="3"/>
     </row>
-    <row r="767">
+    <row r="767" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A767" s="3"/>
     </row>
-    <row r="768">
+    <row r="768" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A768" s="3"/>
     </row>
-    <row r="769">
+    <row r="769" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A769" s="3"/>
     </row>
-    <row r="770">
+    <row r="770" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A770" s="3"/>
     </row>
-    <row r="771">
+    <row r="771" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A771" s="3"/>
     </row>
-    <row r="772">
+    <row r="772" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A772" s="3"/>
     </row>
-    <row r="773">
+    <row r="773" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A773" s="3"/>
     </row>
-    <row r="774">
+    <row r="774" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A774" s="3"/>
     </row>
-    <row r="775">
+    <row r="775" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A775" s="3"/>
     </row>
-    <row r="776">
+    <row r="776" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A776" s="3"/>
     </row>
-    <row r="777">
+    <row r="777" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A777" s="3"/>
     </row>
-    <row r="778">
+    <row r="778" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A778" s="3"/>
     </row>
-    <row r="779">
+    <row r="779" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A779" s="3"/>
     </row>
-    <row r="780">
+    <row r="780" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A780" s="3"/>
     </row>
-    <row r="781">
+    <row r="781" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A781" s="3"/>
     </row>
-    <row r="782">
+    <row r="782" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A782" s="3"/>
     </row>
-    <row r="783">
+    <row r="783" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A783" s="3"/>
     </row>
-    <row r="784">
+    <row r="784" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A784" s="3"/>
     </row>
-    <row r="785">
+    <row r="785" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A785" s="3"/>
     </row>
-    <row r="786">
+    <row r="786" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A786" s="3"/>
     </row>
-    <row r="787">
+    <row r="787" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A787" s="3"/>
     </row>
-    <row r="788">
+    <row r="788" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A788" s="3"/>
     </row>
-    <row r="789">
+    <row r="789" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A789" s="3"/>
     </row>
-    <row r="790">
+    <row r="790" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A790" s="3"/>
     </row>
-    <row r="791">
+    <row r="791" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A791" s="3"/>
     </row>
-    <row r="792">
+    <row r="792" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A792" s="3"/>
     </row>
-    <row r="793">
+    <row r="793" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A793" s="3"/>
     </row>
-    <row r="794">
+    <row r="794" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A794" s="3"/>
     </row>
-    <row r="795">
+    <row r="795" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A795" s="3"/>
     </row>
-    <row r="796">
+    <row r="796" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A796" s="3"/>
     </row>
-    <row r="797">
+    <row r="797" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A797" s="3"/>
     </row>
-    <row r="798">
+    <row r="798" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A798" s="3"/>
     </row>
-    <row r="799">
+    <row r="799" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A799" s="3"/>
     </row>
-    <row r="800">
+    <row r="800" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A800" s="3"/>
     </row>
-    <row r="801">
+    <row r="801" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A801" s="3"/>
     </row>
-    <row r="802">
+    <row r="802" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A802" s="3"/>
     </row>
-    <row r="803">
+    <row r="803" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A803" s="3"/>
     </row>
-    <row r="804">
+    <row r="804" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A804" s="3"/>
     </row>
-    <row r="805">
+    <row r="805" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A805" s="3"/>
     </row>
-    <row r="806">
+    <row r="806" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A806" s="3"/>
     </row>
-    <row r="807">
+    <row r="807" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A807" s="3"/>
     </row>
-    <row r="808">
+    <row r="808" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A808" s="3"/>
     </row>
-    <row r="809">
+    <row r="809" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A809" s="3"/>
     </row>
-    <row r="810">
+    <row r="810" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A810" s="3"/>
     </row>
-    <row r="811">
+    <row r="811" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A811" s="3"/>
     </row>
-    <row r="812">
+    <row r="812" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A812" s="3"/>
     </row>
-    <row r="813">
+    <row r="813" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A813" s="3"/>
     </row>
-    <row r="814">
+    <row r="814" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A814" s="3"/>
     </row>
-    <row r="815">
+    <row r="815" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A815" s="3"/>
     </row>
-    <row r="816">
+    <row r="816" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A816" s="3"/>
     </row>
-    <row r="817">
+    <row r="817" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A817" s="3"/>
     </row>
-    <row r="818">
+    <row r="818" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A818" s="3"/>
     </row>
-    <row r="819">
+    <row r="819" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A819" s="3"/>
     </row>
-    <row r="820">
+    <row r="820" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A820" s="3"/>
     </row>
-    <row r="821">
+    <row r="821" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A821" s="3"/>
     </row>
-    <row r="822">
+    <row r="822" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A822" s="3"/>
     </row>
-    <row r="823">
+    <row r="823" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A823" s="3"/>
     </row>
-    <row r="824">
+    <row r="824" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A824" s="3"/>
     </row>
-    <row r="825">
+    <row r="825" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A825" s="3"/>
     </row>
-    <row r="826">
+    <row r="826" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="3"/>
     </row>
-    <row r="827">
+    <row r="827" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A827" s="3"/>
     </row>
-    <row r="828">
+    <row r="828" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A828" s="3"/>
     </row>
-    <row r="829">
+    <row r="829" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A829" s="3"/>
     </row>
-    <row r="830">
+    <row r="830" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A830" s="3"/>
     </row>
-    <row r="831">
+    <row r="831" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A831" s="3"/>
     </row>
-    <row r="832">
+    <row r="832" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A832" s="3"/>
     </row>
-    <row r="833">
+    <row r="833" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A833" s="3"/>
     </row>
-    <row r="834">
+    <row r="834" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A834" s="3"/>
     </row>
-    <row r="835">
+    <row r="835" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A835" s="3"/>
     </row>
-    <row r="836">
+    <row r="836" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A836" s="3"/>
     </row>
-    <row r="837">
+    <row r="837" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A837" s="3"/>
     </row>
-    <row r="838">
+    <row r="838" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A838" s="3"/>
     </row>
-    <row r="839">
+    <row r="839" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A839" s="3"/>
     </row>
-    <row r="840">
+    <row r="840" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A840" s="3"/>
     </row>
-    <row r="841">
+    <row r="841" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A841" s="3"/>
     </row>
-    <row r="842">
+    <row r="842" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A842" s="3"/>
     </row>
-    <row r="843">
+    <row r="843" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A843" s="3"/>
     </row>
-    <row r="844">
+    <row r="844" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A844" s="3"/>
     </row>
-    <row r="845">
+    <row r="845" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A845" s="3"/>
     </row>
-    <row r="846">
+    <row r="846" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A846" s="3"/>
     </row>
-    <row r="847">
+    <row r="847" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="3"/>
     </row>
-    <row r="848">
+    <row r="848" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A848" s="3"/>
     </row>
-    <row r="849">
+    <row r="849" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A849" s="3"/>
     </row>
-    <row r="850">
+    <row r="850" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A850" s="3"/>
     </row>
-    <row r="851">
+    <row r="851" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A851" s="3"/>
     </row>
-    <row r="852">
+    <row r="852" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A852" s="3"/>
     </row>
-    <row r="853">
+    <row r="853" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A853" s="3"/>
     </row>
-    <row r="854">
+    <row r="854" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A854" s="3"/>
     </row>
-    <row r="855">
+    <row r="855" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A855" s="3"/>
     </row>
-    <row r="856">
+    <row r="856" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A856" s="3"/>
     </row>
-    <row r="857">
+    <row r="857" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A857" s="3"/>
     </row>
-    <row r="858">
+    <row r="858" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A858" s="3"/>
     </row>
-    <row r="859">
+    <row r="859" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A859" s="3"/>
     </row>
-    <row r="860">
+    <row r="860" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A860" s="3"/>
     </row>
-    <row r="861">
+    <row r="861" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A861" s="3"/>
     </row>
-    <row r="862">
+    <row r="862" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A862" s="3"/>
     </row>
-    <row r="863">
+    <row r="863" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A863" s="3"/>
     </row>
-    <row r="864">
+    <row r="864" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A864" s="3"/>
     </row>
-    <row r="865">
+    <row r="865" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A865" s="3"/>
     </row>
-    <row r="866">
+    <row r="866" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A866" s="3"/>
     </row>
-    <row r="867">
+    <row r="867" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A867" s="3"/>
     </row>
-    <row r="868">
+    <row r="868" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A868" s="3"/>
     </row>
-    <row r="869">
+    <row r="869" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A869" s="3"/>
     </row>
-    <row r="870">
+    <row r="870" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A870" s="3"/>
     </row>
-    <row r="871">
+    <row r="871" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A871" s="3"/>
     </row>
-    <row r="872">
+    <row r="872" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A872" s="3"/>
     </row>
-    <row r="873">
+    <row r="873" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A873" s="3"/>
     </row>
-    <row r="874">
+    <row r="874" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A874" s="3"/>
     </row>
-    <row r="875">
+    <row r="875" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A875" s="3"/>
     </row>
-    <row r="876">
+    <row r="876" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A876" s="3"/>
     </row>
-    <row r="877">
+    <row r="877" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A877" s="3"/>
     </row>
-    <row r="878">
+    <row r="878" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A878" s="3"/>
     </row>
-    <row r="879">
+    <row r="879" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A879" s="3"/>
     </row>
-    <row r="880">
+    <row r="880" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A880" s="3"/>
     </row>
-    <row r="881">
+    <row r="881" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A881" s="3"/>
     </row>
-    <row r="882">
+    <row r="882" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A882" s="3"/>
     </row>
-    <row r="883">
+    <row r="883" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A883" s="3"/>
     </row>
-    <row r="884">
+    <row r="884" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A884" s="3"/>
     </row>
-    <row r="885">
+    <row r="885" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A885" s="3"/>
     </row>
-    <row r="886">
+    <row r="886" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A886" s="3"/>
     </row>
-    <row r="887">
+    <row r="887" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A887" s="3"/>
     </row>
-    <row r="888">
+    <row r="888" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A888" s="3"/>
     </row>
-    <row r="889">
+    <row r="889" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A889" s="3"/>
     </row>
-    <row r="890">
+    <row r="890" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A890" s="3"/>
     </row>
-    <row r="891">
+    <row r="891" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A891" s="3"/>
     </row>
-    <row r="892">
+    <row r="892" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A892" s="3"/>
     </row>
-    <row r="893">
+    <row r="893" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A893" s="3"/>
     </row>
-    <row r="894">
+    <row r="894" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A894" s="3"/>
     </row>
-    <row r="895">
+    <row r="895" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A895" s="3"/>
     </row>
-    <row r="896">
+    <row r="896" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A896" s="3"/>
     </row>
-    <row r="897">
+    <row r="897" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A897" s="3"/>
     </row>
-    <row r="898">
+    <row r="898" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A898" s="3"/>
     </row>
-    <row r="899">
+    <row r="899" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A899" s="3"/>
     </row>
-    <row r="900">
+    <row r="900" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A900" s="3"/>
     </row>
-    <row r="901">
+    <row r="901" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A901" s="3"/>
     </row>
-    <row r="902">
+    <row r="902" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A902" s="3"/>
     </row>
-    <row r="903">
+    <row r="903" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A903" s="3"/>
     </row>
-    <row r="904">
+    <row r="904" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A904" s="3"/>
     </row>
-    <row r="905">
+    <row r="905" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A905" s="3"/>
     </row>
-    <row r="906">
+    <row r="906" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A906" s="3"/>
     </row>
-    <row r="907">
+    <row r="907" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A907" s="3"/>
     </row>
-    <row r="908">
+    <row r="908" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A908" s="3"/>
     </row>
-    <row r="909">
+    <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A909" s="3"/>
     </row>
-    <row r="910">
+    <row r="910" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A910" s="3"/>
     </row>
-    <row r="911">
+    <row r="911" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A911" s="3"/>
     </row>
-    <row r="912">
+    <row r="912" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A912" s="3"/>
     </row>
-    <row r="913">
+    <row r="913" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A913" s="3"/>
     </row>
-    <row r="914">
+    <row r="914" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A914" s="3"/>
     </row>
-    <row r="915">
+    <row r="915" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A915" s="3"/>
     </row>
-    <row r="916">
+    <row r="916" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A916" s="3"/>
     </row>
-    <row r="917">
+    <row r="917" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A917" s="3"/>
     </row>
-    <row r="918">
+    <row r="918" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A918" s="3"/>
     </row>
-    <row r="919">
+    <row r="919" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A919" s="3"/>
     </row>
-    <row r="920">
+    <row r="920" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A920" s="3"/>
     </row>
-    <row r="921">
+    <row r="921" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A921" s="3"/>
     </row>
-    <row r="922">
+    <row r="922" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A922" s="3"/>
     </row>
-    <row r="923">
+    <row r="923" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A923" s="3"/>
     </row>
-    <row r="924">
+    <row r="924" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A924" s="3"/>
     </row>
-    <row r="925">
+    <row r="925" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A925" s="3"/>
     </row>
-    <row r="926">
+    <row r="926" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A926" s="3"/>
     </row>
-    <row r="927">
+    <row r="927" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A927" s="3"/>
     </row>
-    <row r="928">
+    <row r="928" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A928" s="3"/>
     </row>
-    <row r="929">
+    <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A929" s="3"/>
     </row>
-    <row r="930">
+    <row r="930" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A930" s="3"/>
     </row>
-    <row r="931">
+    <row r="931" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A931" s="3"/>
     </row>
-    <row r="932">
+    <row r="932" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A932" s="3"/>
     </row>
-    <row r="933">
+    <row r="933" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A933" s="3"/>
     </row>
-    <row r="934">
+    <row r="934" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A934" s="3"/>
     </row>
-    <row r="935">
+    <row r="935" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A935" s="3"/>
     </row>
-    <row r="936">
+    <row r="936" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A936" s="3"/>
     </row>
-    <row r="937">
+    <row r="937" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A937" s="3"/>
     </row>
-    <row r="938">
+    <row r="938" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A938" s="3"/>
     </row>
-    <row r="939">
+    <row r="939" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A939" s="3"/>
     </row>
-    <row r="940">
+    <row r="940" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A940" s="3"/>
     </row>
-    <row r="941">
+    <row r="941" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="3"/>
     </row>
-    <row r="942">
+    <row r="942" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A942" s="3"/>
     </row>
-    <row r="943">
+    <row r="943" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A943" s="3"/>
     </row>
-    <row r="944">
+    <row r="944" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A944" s="3"/>
     </row>
-    <row r="945">
+    <row r="945" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="3"/>
     </row>
-    <row r="946">
+    <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A946" s="3"/>
     </row>
-    <row r="947">
+    <row r="947" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="3"/>
     </row>
-    <row r="948">
+    <row r="948" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="3"/>
     </row>
-    <row r="949">
+    <row r="949" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A949" s="3"/>
     </row>
-    <row r="950">
+    <row r="950" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A950" s="3"/>
     </row>
-    <row r="951">
+    <row r="951" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A951" s="3"/>
     </row>
-    <row r="952">
+    <row r="952" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A952" s="3"/>
     </row>
-    <row r="953">
+    <row r="953" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A953" s="3"/>
     </row>
-    <row r="954">
+    <row r="954" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A954" s="3"/>
     </row>
-    <row r="955">
+    <row r="955" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A955" s="3"/>
     </row>
-    <row r="956">
+    <row r="956" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A956" s="3"/>
     </row>
-    <row r="957">
+    <row r="957" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A957" s="3"/>
     </row>
-    <row r="958">
+    <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A958" s="3"/>
     </row>
-    <row r="959">
+    <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A959" s="3"/>
     </row>
-    <row r="960">
+    <row r="960" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A960" s="3"/>
     </row>
-    <row r="961">
+    <row r="961" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A961" s="3"/>
     </row>
-    <row r="962">
+    <row r="962" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A962" s="3"/>
     </row>
-    <row r="963">
+    <row r="963" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A963" s="3"/>
     </row>
-    <row r="964">
+    <row r="964" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A964" s="3"/>
     </row>
-    <row r="965">
+    <row r="965" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A965" s="3"/>
     </row>
-    <row r="966">
+    <row r="966" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A966" s="3"/>
     </row>
-    <row r="967">
+    <row r="967" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A967" s="3"/>
     </row>
-    <row r="968">
+    <row r="968" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A968" s="3"/>
     </row>
-    <row r="969">
+    <row r="969" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A969" s="3"/>
     </row>
-    <row r="970">
+    <row r="970" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A970" s="3"/>
     </row>
-    <row r="971">
+    <row r="971" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A971" s="3"/>
     </row>
-    <row r="972">
+    <row r="972" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A972" s="3"/>
     </row>
-    <row r="973">
+    <row r="973" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A973" s="3"/>
     </row>
-    <row r="974">
+    <row r="974" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A974" s="3"/>
     </row>
-    <row r="975">
+    <row r="975" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A975" s="3"/>
     </row>
-    <row r="976">
+    <row r="976" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A976" s="3"/>
     </row>
-    <row r="977">
+    <row r="977" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A977" s="3"/>
     </row>
-    <row r="978">
+    <row r="978" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A978" s="3"/>
     </row>
-    <row r="979">
+    <row r="979" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A979" s="3"/>
     </row>
-    <row r="980">
+    <row r="980" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A980" s="3"/>
     </row>
-    <row r="981">
+    <row r="981" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A981" s="3"/>
     </row>
-    <row r="982">
+    <row r="982" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A982" s="3"/>
     </row>
-    <row r="983">
+    <row r="983" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A983" s="3"/>
     </row>
-    <row r="984">
+    <row r="984" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A984" s="3"/>
     </row>
-    <row r="985">
+    <row r="985" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A985" s="3"/>
     </row>
-    <row r="986">
+    <row r="986" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A986" s="3"/>
     </row>
-    <row r="987">
+    <row r="987" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A987" s="3"/>
     </row>
-    <row r="988">
+    <row r="988" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A988" s="3"/>
     </row>
-    <row r="989">
+    <row r="989" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A989" s="3"/>
     </row>
-    <row r="990">
+    <row r="990" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A990" s="3"/>
     </row>
-    <row r="991">
+    <row r="991" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A991" s="3"/>
     </row>
-    <row r="992">
+    <row r="992" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A992" s="3"/>
     </row>
-    <row r="993">
+    <row r="993" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A993" s="3"/>
     </row>
-    <row r="994">
+    <row r="994" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A994" s="3"/>
     </row>
-    <row r="995">
+    <row r="995" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A995" s="3"/>
     </row>
-    <row r="996">
+    <row r="996" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A996" s="3"/>
     </row>
-    <row r="997">
+    <row r="997" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A997" s="3"/>
     </row>
-    <row r="998">
+    <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A998" s="3"/>
     </row>
   </sheetData>
@@ -4042,6 +4009,12 @@
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="N1:Q1"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>